--- a/public/DownloadExcels/Usuarios.xlsx
+++ b/public/DownloadExcels/Usuarios.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Ecop\ecopFront\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E7006-81D6-42C7-B3A2-2FE523657070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98653F97-9EEA-4D0E-A3EF-2CE48CAB1E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CREACION MASIVA DE USUARIO" sheetId="1" r:id="rId1"/>
-    <sheet name="Lista desplegable" sheetId="2" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1101">
   <si>
     <t>CREACION MASIVA DE USUARIOS</t>
   </si>
@@ -3313,19 +3314,43 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>1. EN ESTE FORMULARIO TODAS LAS COLUMNAS SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN.  
-2. OBLIGATORIO: Escribe el nombre del / de la usuari@ SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula.
-3. OBLIGATORIO: Si el nombre del usuario tiene dos palabras, SOLO debes poner en mayúscula la primera letra de la primera palabra.
-4. OBLIGATORIO: Registra el/la usuari@ UNA (1) SOLA VEZ.
-5. OBLIGATORIO: En la columna B, ESCRIBE EL NOMBRE DEL / DE LA USUARI@.
-6. OBLIGATORIO: En la columna C, ESCRIBE LOS APELLIDOS DEL / DE LA USUARI@.
-7. OBLIGATORIO: En la columna D, ESCRIBE TIPOS DE INDENTIDAD DEL / DE LA USUARI@.
-8. OBLIGATORIO: En las columnas E, ESCRIBE EL NÚMERO DE IDENTIDAD DEL / DE LA USUARI@.
-9. OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE EL ROL DEL / DE LA USUARI@.
-10. OBLIGATORIO: En la columna G y H, ESCRIBE EL EMAIL Y LA CONTRASEÑA DE INGRESO DEL / DE LA USUARI@.
-11. OBLIGATORIO: En la columna I, ESCRIBE EL NÚMERO DE TELÉFONO FIJO O CELULAR DEL / DE LA USUARI@.
-12. OBLIGATORIO: En la columna J y K, SELECCIONA EL DEPARTAMENTO Y LA CIUDAD DONDE VIVE EL / LA USUARI@.
-13. OBLIGATORIO: En la columna L, ESCRIBE LA DIRECCION DEL / DE LA USUARI@.</t>
+    <t xml:space="preserve">1. EN ESTE FORMULARIO TODAS LAS COLUMNAS SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN.  </t>
+  </si>
+  <si>
+    <t>2. OBLIGATORIO: Escribe el nombre del / de la usuari@ SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula.</t>
+  </si>
+  <si>
+    <t>3. OBLIGATORIO: Si el nombre del usuario tiene dos palabras, SOLO debes poner en mayúscula la primera letra de la primera palabra.</t>
+  </si>
+  <si>
+    <t>4. OBLIGATORIO: Registra el/la usuari@ UNA (1) SOLA VEZ.</t>
+  </si>
+  <si>
+    <t>5. OBLIGATORIO: En la columna B, ESCRIBE EL NOMBRE DEL / DE LA USUARI@.</t>
+  </si>
+  <si>
+    <t>6. OBLIGATORIO: En la columna C, ESCRIBE LOS APELLIDOS DEL / DE LA USUARI@.</t>
+  </si>
+  <si>
+    <t>7. OBLIGATORIO: En la columna D, ESCRIBE TIPOS DE INDENTIDAD DEL / DE LA USUARI@.</t>
+  </si>
+  <si>
+    <t>8. OBLIGATORIO: En las columnas E, ESCRIBE EL NÚMERO DE IDENTIDAD DEL / DE LA USUARI@.</t>
+  </si>
+  <si>
+    <t>9. OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE EL ROL DEL / DE LA USUARI@.</t>
+  </si>
+  <si>
+    <t>10. OBLIGATORIO: En la columna G y H, ESCRIBE EL EMAIL Y LA CONTRASEÑA DE INGRESO DEL / DE LA USUARI@.</t>
+  </si>
+  <si>
+    <t>11. OBLIGATORIO: En la columna I, ESCRIBE EL NÚMERO DE TELÉFONO FIJO O CELULAR DEL / DE LA USUARI@.</t>
+  </si>
+  <si>
+    <t>12. OBLIGATORIO: En la columna J y K, SELECCIONA EL DEPARTAMENTO Y LA CIUDAD DONDE VIVE EL / LA USUARI@.</t>
+  </si>
+  <si>
+    <t>13. OBLIGATORIO: En la columna L, ESCRIBE LA DIRECCION DEL / DE LA USUARI@.</t>
   </si>
 </sst>
 </file>
@@ -3335,7 +3360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3392,14 +3417,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF1A2732"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3473,7 +3490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3702,15 +3719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -3764,7 +3772,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -3778,7 +3786,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3809,23 +3817,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3834,7 +3842,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3843,22 +3851,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3878,18 +3886,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4256,10 +4252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L890"/>
+  <dimension ref="A1:L888"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4294,147 +4290,147 @@
       <c r="K1" s="37"/>
       <c r="L1" s="38"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="45"/>
-    </row>
-    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>1084</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>1085</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>1086</v>
-      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="23"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>2</v>
-      </c>
-      <c r="B7" s="19"/>
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="23"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4450,7 +4446,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4466,7 +4462,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4482,7 +4478,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4498,7 +4494,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4514,7 +4510,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4530,7 +4526,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4546,7 +4542,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4562,7 +4558,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4578,7 +4574,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4594,7 +4590,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4610,7 +4606,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4626,7 +4622,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4642,7 +4638,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4658,7 +4654,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4674,7 +4670,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4690,7 +4686,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4706,7 +4702,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4722,7 +4718,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4738,7 +4734,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4754,7 +4750,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4770,7 +4766,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4786,7 +4782,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4802,7 +4798,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4818,7 +4814,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4834,7 +4830,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4850,7 +4846,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4866,7 +4862,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4882,7 +4878,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4898,7 +4894,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4914,7 +4910,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4930,7 +4926,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4946,7 +4942,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4962,7 +4958,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4978,7 +4974,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4994,7 +4990,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5010,7 +5006,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5026,7 +5022,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5042,7 +5038,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5058,7 +5054,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5074,7 +5070,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5090,7 +5086,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5106,7 +5102,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5122,7 +5118,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5138,7 +5134,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5154,7 +5150,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5170,7 +5166,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5186,7 +5182,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5202,7 +5198,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5218,7 +5214,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5234,7 +5230,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5250,7 +5246,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5266,7 +5262,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5282,7 +5278,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5298,7 +5294,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5314,7 +5310,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5330,7 +5326,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5346,7 +5342,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5362,7 +5358,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5378,7 +5374,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5394,7 +5390,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5410,7 +5406,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5426,7 +5422,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5442,7 +5438,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5458,7 +5454,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5474,7 +5470,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5490,7 +5486,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5506,7 +5502,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5522,7 +5518,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5538,7 +5534,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5554,7 +5550,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5570,7 +5566,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5586,7 +5582,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5602,7 +5598,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5618,7 +5614,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5634,7 +5630,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5650,7 +5646,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5666,7 +5662,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5682,7 +5678,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5698,7 +5694,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5714,7 +5710,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5730,7 +5726,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5746,7 +5742,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5762,7 +5758,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5778,7 +5774,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5794,7 +5790,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5810,7 +5806,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5826,7 +5822,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5842,7 +5838,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5858,7 +5854,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5874,7 +5870,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5890,7 +5886,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5906,7 +5902,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5922,7 +5918,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5938,7 +5934,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5954,7 +5950,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5970,7 +5966,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5986,7 +5982,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6002,7 +5998,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6018,7 +6014,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6034,7 +6030,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6050,7 +6046,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6066,7 +6062,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6082,7 +6078,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6098,7 +6094,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6114,7 +6110,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6130,7 +6126,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6146,7 +6142,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6162,7 +6158,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6178,7 +6174,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6194,7 +6190,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6210,7 +6206,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6226,7 +6222,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6242,7 +6238,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6258,7 +6254,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6274,7 +6270,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6290,7 +6286,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6306,7 +6302,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6322,7 +6318,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6338,7 +6334,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6354,7 +6350,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6370,7 +6366,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6386,7 +6382,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6402,7 +6398,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6418,7 +6414,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6434,7 +6430,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6450,7 +6446,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6466,7 +6462,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6482,7 +6478,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6498,7 +6494,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6514,7 +6510,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6530,7 +6526,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6546,7 +6542,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6562,7 +6558,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6578,7 +6574,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6594,7 +6590,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6610,7 +6606,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6626,7 +6622,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6642,7 +6638,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6658,7 +6654,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6674,7 +6670,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6690,7 +6686,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6706,7 +6702,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6722,7 +6718,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6738,7 +6734,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6754,7 +6750,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6770,7 +6766,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6786,7 +6782,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6802,7 +6798,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6818,7 +6814,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6834,7 +6830,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6850,7 +6846,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6866,7 +6862,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6882,7 +6878,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6898,7 +6894,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6914,7 +6910,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6930,7 +6926,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6946,7 +6942,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6962,7 +6958,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6978,7 +6974,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6994,7 +6990,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7010,7 +7006,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7026,7 +7022,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7042,7 +7038,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7058,7 +7054,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7074,7 +7070,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7090,7 +7086,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7106,7 +7102,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7122,7 +7118,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7138,7 +7134,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7154,7 +7150,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7170,7 +7166,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7186,7 +7182,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7202,7 +7198,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7218,7 +7214,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7234,7 +7230,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7250,7 +7246,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7266,7 +7262,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7282,7 +7278,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7298,7 +7294,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7314,7 +7310,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7330,7 +7326,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7346,7 +7342,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7362,7 +7358,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7378,7 +7374,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7394,7 +7390,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7410,7 +7406,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7426,7 +7422,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7442,7 +7438,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7458,7 +7454,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7474,7 +7470,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7490,7 +7486,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7506,7 +7502,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7522,7 +7518,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7538,7 +7534,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7554,7 +7550,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7569,36 +7565,32 @@
       <c r="L203" s="1"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="5">
-        <v>199</v>
-      </c>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
+      <c r="A204" s="6"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="7"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="8"/>
+      <c r="L204" s="9"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
-        <v>200</v>
-      </c>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="8"/>
+      <c r="L205" s="9"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
@@ -17149,52 +17141,22 @@
       <c r="L887" s="9"/>
     </row>
     <row r="888" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A888" s="6"/>
-      <c r="B888" s="7"/>
-      <c r="C888" s="7"/>
-      <c r="D888" s="7"/>
-      <c r="E888" s="7"/>
-      <c r="F888" s="7"/>
-      <c r="G888" s="7"/>
-      <c r="H888" s="7"/>
-      <c r="I888" s="7"/>
-      <c r="J888" s="7"/>
-      <c r="K888" s="8"/>
-      <c r="L888" s="9"/>
-    </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A889" s="6"/>
-      <c r="B889" s="7"/>
-      <c r="C889" s="7"/>
-      <c r="D889" s="7"/>
-      <c r="E889" s="7"/>
-      <c r="F889" s="7"/>
-      <c r="G889" s="7"/>
-      <c r="H889" s="7"/>
-      <c r="I889" s="7"/>
-      <c r="J889" s="7"/>
-      <c r="K889" s="8"/>
-      <c r="L889" s="9"/>
-    </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A890" s="10"/>
-      <c r="B890" s="11"/>
-      <c r="C890" s="11"/>
-      <c r="D890" s="11"/>
-      <c r="E890" s="11"/>
-      <c r="F890" s="11"/>
-      <c r="G890" s="11"/>
-      <c r="H890" s="11"/>
-      <c r="I890" s="11"/>
-      <c r="J890" s="11"/>
-      <c r="K890" s="12"/>
-      <c r="L890" s="13"/>
+      <c r="A888" s="10"/>
+      <c r="B888" s="11"/>
+      <c r="C888" s="11"/>
+      <c r="D888" s="11"/>
+      <c r="E888" s="11"/>
+      <c r="F888" s="11"/>
+      <c r="G888" s="11"/>
+      <c r="H888" s="11"/>
+      <c r="I888" s="11"/>
+      <c r="J888" s="11"/>
+      <c r="K888" s="12"/>
+      <c r="L888" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17205,25 +17167,25 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D205</xm:sqref>
+          <xm:sqref>D4:D203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD67D446-DA39-45A5-BC58-C4F0E0ACA66B}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F205</xm:sqref>
+          <xm:sqref>F4:F203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{577DBD0A-C5E9-4E81-9F28-686A14A054ED}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$D$2:$D$34</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J7</xm:sqref>
+          <xm:sqref>J4:J5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86F33940-A2BF-46D9-85CF-1F23699F9AB0}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$E$2:$E$1117</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K7</xm:sqref>
+          <xm:sqref>K4:K5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17232,11 +17194,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE675F4F-629C-4187-9AAB-FE872DEAD2D4}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119C998-4A09-4757-8BCE-00316CEA9343}">
   <dimension ref="B1:E1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/DownloadExcels/Usuarios.xlsx
+++ b/public/DownloadExcels/Usuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98653F97-9EEA-4D0E-A3EF-2CE48CAB1E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9645E-90DD-465E-9FFD-C543FEA8CA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1110">
   <si>
     <t>CREACION MASIVA DE USUARIOS</t>
   </si>
@@ -3351,6 +3351,33 @@
   </si>
   <si>
     <t>13. OBLIGATORIO: En la columna L, ESCRIBE LA DIRECCION DEL / DE LA USUARI@.</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>carlosmario.reyesp@gmail.com</t>
+  </si>
+  <si>
+    <t>cmario.reyesp@gmail.com</t>
+  </si>
+  <si>
+    <t>PlopPlop15</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Cra 100</t>
+  </si>
+  <si>
+    <t>Cra 200</t>
   </si>
 </sst>
 </file>
@@ -4255,7 +4282,7 @@
   <dimension ref="A1:L888"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,33 +4395,77 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1054111222</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3128082002</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="23"/>
+      <c r="B5" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1110521285</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3128082002</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -17158,8 +17229,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{1E6561D2-ACB1-44FC-97B6-7381A80867E1}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{5C8E110A-63D0-4F22-9EB9-3563D67B6FEE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
